--- a/artigos_PeerJ/SelecaoFase2 - Saulo.xlsx
+++ b/artigos_PeerJ/SelecaoFase2 - Saulo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t xml:space="preserve">author</t>
   </si>
@@ -80,10 +80,19 @@
     <t xml:space="preserve">Sateli B, Witte R. 2015. Semantic representation of scientific literature: bringing claims, contributions and named entities onto the Linked Open Data cloud. PeerJ Computer Science 1:e37 https://doi.org/10.7717/peerj-cs.37 </t>
   </si>
   <si>
+    <t xml:space="preserve">2(auto)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thessen AE, Poelen JH, Collins M, Hammock J. 2018. 20 GB in 10 minutes: a case for linking major biodiversity databases using an open socio-technical infrastructure and a pragmatic, cross-institutional collaboration. PeerJ Computer Science 4:e164 https://doi.org/10.7717/peerj-cs.164 </t>
   </si>
   <si>
+    <t xml:space="preserve">2(auto),3(biologia)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smith AM, Katz DS, Niemeyer KE, FORCE11 Software Citation Working Group. 2016. Software citation principles. PeerJ Computer Science 2:e86 https://doi.org/10.7717/peerj-cs.86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1(sobre citação – normas técnicas)</t>
   </si>
   <si>
     <t xml:space="preserve">Vaas LAI, Witt G, Windshügel B, Bosin A, Serra G, Bruengger A, Winterhalter M, Gribbon P, Levy-Petelinkar CJ, Kohler M. 2016. Electronic laboratory notebooks in a public–private partnership. PeerJ Computer Science 2:e83 https://doi.org/10.7717/peerj-cs.83 </t>
@@ -609,14 +618,14 @@
   </sheetPr>
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="94.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.85"/>
@@ -740,11 +749,17 @@
       <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -753,23 +768,35 @@
       <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -784,31 +811,43 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -823,7 +862,7 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -838,7 +877,7 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -1021,37 +1060,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,7 +1098,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/artigos_PeerJ/SelecaoFase2 - Saulo.xlsx
+++ b/artigos_PeerJ/SelecaoFase2 - Saulo.xlsx
@@ -618,14 +618,14 @@
   </sheetPr>
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="94.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="110.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.85"/>
